--- a/biology/Médecine/Isabelle_von_Bueltzingsloewen/Isabelle_von_Bueltzingsloewen.xlsx
+++ b/biology/Médecine/Isabelle_von_Bueltzingsloewen/Isabelle_von_Bueltzingsloewen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Von Bueltzingsloewen est une historienne française, née en 1964. Elle est spécialiste d'histoire de la santé publique et de la médicalisation du XVIIIe au XXe siècle.
-Ancienne élève de l'ENS Fontenay-Saint-Cloud, docteur en histoire et habilitée à diriger des recherches, elle est depuis 2010 professeur d'histoire et de sociologie de la santé à l'université Lumière Lyon 2, après avoir été maître de conférences dans la même université depuis 1993. Elle est membre du laboratoire de recherche historique Rhône-Alpes (LARHRA, équipe RESEA). Elle a précédemment été membre de l'axe de recherche « santé/assistance », du Centre Pierre Léon d'histoire économique et sociale[1] (Lyon), aujourd'hui disparu.
+Ancienne élève de l'ENS Fontenay-Saint-Cloud, docteur en histoire et habilitée à diriger des recherches, elle est depuis 2010 professeur d'histoire et de sociologie de la santé à l'université Lumière Lyon 2, après avoir été maître de conférences dans la même université depuis 1993. Elle est membre du laboratoire de recherche historique Rhône-Alpes (LARHRA, équipe RESEA). Elle a précédemment été membre de l'axe de recherche « santé/assistance », du Centre Pierre Léon d'histoire économique et sociale (Lyon), aujourd'hui disparu.
 </t>
         </is>
       </c>
@@ -514,19 +526,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ouvrages
-Machines à instruire, machines à guérir - Les hôpitaux universitaires et la médicalisation de la société allemande (1730-1850), Presses universitaires de Lyon, 1997  (ISBN 2-7297-0582-1)
-L'Hécatombe des fous. La famine dans les hôpitaux psychiatriques français sous l'Occupation, Aubier, 2007  (ISBN 978-2-7007-2364-9), rééd: Flammarion-Champs, Histoire, 2009,  (ISBN 978-2-0812-2479-7)
-Direction d'ouvrages
-La charité en pratique: Chrétiens français et allemands sur le terrain social : XIXe – XXe siècles, en collaboration vec Denis Pelletier, Presses Universitaires de Strasbourg, 1999  (ISBN 2-86820-023-0)
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Machines à instruire, machines à guérir - Les hôpitaux universitaires et la médicalisation de la société allemande (1730-1850), Presses universitaires de Lyon, 1997  (ISBN 2-7297-0582-1)
+L'Hécatombe des fous. La famine dans les hôpitaux psychiatriques français sous l'Occupation, Aubier, 2007  (ISBN 978-2-7007-2364-9), rééd: Flammarion-Champs, Histoire, 2009,  (ISBN 978-2-0812-2479-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Isabelle_von_Bueltzingsloewen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_von_Bueltzingsloewen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Direction d'ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La charité en pratique: Chrétiens français et allemands sur le terrain social : XIXe – XXe siècles, en collaboration vec Denis Pelletier, Presses Universitaires de Strasbourg, 1999  (ISBN 2-86820-023-0)
 « Morts d'inanition ». Famine et exclusions en France sous l'Occupation, Presses universitaires de Rennes, 2005  (ISBN 2-7535-0136-X)
-Les Cahiers d'Abraham Zoltobroda - Du camp de Beaune-la-Rolande à l'hôpital psychiatrique de Fleury-les-Aubrais, traduction du yiddish par Batia Baum, en collaboration avec Hélène Mouchard-Zay et Benoît Verny, Les Éditions CERCIL, 2007  (ISBN 978-2-9507-5618-3) (BNF 41323511)
-Sélection d'articles
-« Sœur de charité ou diaconesse ? La confessionnalisation des soins aux malades dans l'Allemagne du XIXe siècle », in Olivier Faure (dir.), Les femmes soignantes.- Bulletin du Centre Pierre-Léon d'histoire économique et sociale, nos 2-3, 1995, p. 7-20.
+Les Cahiers d'Abraham Zoltobroda - Du camp de Beaune-la-Rolande à l'hôpital psychiatrique de Fleury-les-Aubrais, traduction du yiddish par Batia Baum, en collaboration avec Hélène Mouchard-Zay et Benoît Verny, Les Éditions CERCIL, 2007  (ISBN 978-2-9507-5618-3) (BNF 41323511)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isabelle_von_Bueltzingsloewen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_von_Bueltzingsloewen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sélection d'articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Sœur de charité ou diaconesse ? La confessionnalisation des soins aux malades dans l'Allemagne du XIXe siècle », in Olivier Faure (dir.), Les femmes soignantes.- Bulletin du Centre Pierre-Léon d'histoire économique et sociale, nos 2-3, 1995, p. 7-20.
 « Confessionnalisation et médicalisation des soins aux malades au XIXe siècle. Essai de réflexion à partir des cas allemands et français », in Olivier Faure [dir.], Médicalisation et professions de santé, XVIe – XXe siècles.- Revue d'histoire moderne et contemporaine, tome 43, octobre-décembre 1996, p. 532-651. +
-« Medikalisierung oder medizinische Vergesellschaftung ? Renouvellement récents de l'histoire sociale et culturelle de la santé et de la médecine en Allemagne », in Bulletin de la Mission historique française en Allemagne, no 34, juin 1998.
-Entretien
-« La famine dans les hôpitaux psychiatriques français sous l'Occupation », entretien avec Nicole Horassius-Jarrié, L'Information psychiatrique, vol. 83, no 8, octobre 2007, p. 721-725</t>
+« Medikalisierung oder medizinische Vergesellschaftung ? Renouvellement récents de l'histoire sociale et culturelle de la santé et de la médecine en Allemagne », in Bulletin de la Mission historique française en Allemagne, no 34, juin 1998.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Isabelle_von_Bueltzingsloewen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_von_Bueltzingsloewen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Entretien</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« La famine dans les hôpitaux psychiatriques français sous l'Occupation », entretien avec Nicole Horassius-Jarrié, L'Information psychiatrique, vol. 83, no 8, octobre 2007, p. 721-725</t>
         </is>
       </c>
     </row>
